--- a/biology/Mycologie/Collybie/Collybie.xlsx
+++ b/biology/Mycologie/Collybie/Collybie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collybie (du grec kollubos, « petite pièce, monnaie », en référence au chapeau mince) est un nom vernaculaire ambigu désignant en français plusieurs champignons.
 </t>
@@ -511,75 +523,77 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Collybie à base poilue – Gymnopus semihirtipes[1]
-Collybie à chapeau rugueux – Hymenopellis rugosoceps[1]
-Collybie à grandes spores – Hymenopellis megalospora[1]
-Collybie à lames jaunes – Callistosporium xanthophyllum[2]
-Collybie à lames larges – Megacollybia platyphylla[2]
-Collybie à maintes lames – Gymnopus polyphyllus[1]
-Collybie à mèches – Collybia cirrhata[1]
-Collybie à mille feuillets – Baeospora myriadophylla[1]
-Collybie à ocelle – Clitocybula oculus[1]
-Collybie à petites spores – Pseudobaeospora microspora[1]
-Collybie à pied en fuseau – Gymnopus fusipes[2]
-Collybie à pied rouge – Gymnopus erythropus[2]
-Collybie à pied strié – Gymnopus striatipes[1]
-Collybie à pied tordu – Rhodocollybia distorta[2]
-Collybie à pied velouté – Flammulina velutipes[2]
-Collybie à poils blancs – Strobilurus albipilatus[1]
-Collybie à poils ras – Xerula pudens[2]
-Collybie à sclérote jaune – Microcollybia cookei[2]
-Collybie à sclérote noir – Microcollybia tuberosa[2]
-Collybie à spores limoniformes – Hymenopellis limonispora[1]
-Collybie beurrée – Rhodocollybia butyracea[2]
-Collybie bicolore – Gymnopus dichrous[1]
-Collybie biforme – Gymnopus biformis[1]
-Collybie brunâtre – Gymnopus brunneolus[1]
-Collybie brunissante – Hymenopellis rubrobrunnescens[1]
-Collybie confluente – Gymnopus confluens[1]
-Collybie coriace – Gymnopus terginus[1]
-Collybie crin-de-cheval – Gymnopus androsaceus[1]
-Collybie de Cooke – Collybia cookei[1]
-Collybie de Earle – Gymnopus earleae[1]
-Collybie de Rodman – Megacollybia rodmanii[1]
-Collybie des chênes – Gymnopus dryophilus[2]
-Collybie des cônes d'épicéa – Strobilurus esculentus[2]
-Collybie des cônes de pin – Strobilurus stephanocystis[2]
-Collybie des devins – Gymnopus cf hariolorum[1]
-Collybie des neiges – Gymnopus vernus[2]
-Collybie drapée d'or – Cyptotrama chrysopepla[1]
-Collybie du chêne – Gymnopus dryophilus[1]
-Collybie en touffes – Gymnopus confluens[2] ou Gymnopus acervatus[1]
-Collybie en troupes – Clitocybula familia[1]
-Collybie fétide – Gymnopus impudicus[2] ou Gymnopus foetidus[1]
-Collybie foncée – Gymnopus alkalivirens[1]
-Collybie fouisseuse – Rhodocollybia fodiens[2]
-Collybie furfuracée – Hymenopellis furfuracea[1]
-Collybie gracile – Gymnopus putillus[1]
-Collybie guêtrée – Gymnopus peronatus[2]
-Collybie hybride – Gymnopus hybridus[2]
-Collybie hygrophore – Caulorhiza hygrophoroides[1]
-Collybie impudique – Gymnopus impudicus[1]
-Collybie jaune olivacé – Callistosporium luteoolivaceum[1]
-Collybie lacérée – Clitocybula lacerata[2]
-Collybie luxuriante – Gymnopus luxurians[1]
-Collybie maculée – Rhodocollybia maculata[2]
-Collybie méconnue – Hymenopellis incognita[1]
-Collybie mycophage – Microcollybia cirrata[2]
-Collybie peignée – Rhodocollybia filamentosa[2]
-Collybie perforante – Gymnopus perforans[1]
-Collybie pourprée – Gymnopus alkalivirens ou Gymnopus fuscopurpureus[2]
-Collybie presque nue – Gymnopus subnudus[1]
-Collybie queue-de-souris – Baeospora myosura[2]
-Collybie radicante – Xerula radicata[2]
-Collybie rameuse – Dendrocollybia racemosa[2]
-Collybie soufrée – Gymnopus subsulphureus[1]
-Collybie tenace – Strobilurus tenacellus[2]
-Collybie tubéreuse – Collybia tuberosa[1]
-Collybie visqueuse – Mucidula mucida[2]
+Collybie à base poilue – Gymnopus semihirtipes
+Collybie à chapeau rugueux – Hymenopellis rugosoceps
+Collybie à grandes spores – Hymenopellis megalospora
+Collybie à lames jaunes – Callistosporium xanthophyllum
+Collybie à lames larges – Megacollybia platyphylla
+Collybie à maintes lames – Gymnopus polyphyllus
+Collybie à mèches – Collybia cirrhata
+Collybie à mille feuillets – Baeospora myriadophylla
+Collybie à ocelle – Clitocybula oculus
+Collybie à petites spores – Pseudobaeospora microspora
+Collybie à pied en fuseau – Gymnopus fusipes
+Collybie à pied rouge – Gymnopus erythropus
+Collybie à pied strié – Gymnopus striatipes
+Collybie à pied tordu – Rhodocollybia distorta
+Collybie à pied velouté – Flammulina velutipes
+Collybie à poils blancs – Strobilurus albipilatus
+Collybie à poils ras – Xerula pudens
+Collybie à sclérote jaune – Microcollybia cookei
+Collybie à sclérote noir – Microcollybia tuberosa
+Collybie à spores limoniformes – Hymenopellis limonispora
+Collybie beurrée – Rhodocollybia butyracea
+Collybie bicolore – Gymnopus dichrous
+Collybie biforme – Gymnopus biformis
+Collybie brunâtre – Gymnopus brunneolus
+Collybie brunissante – Hymenopellis rubrobrunnescens
+Collybie confluente – Gymnopus confluens
+Collybie coriace – Gymnopus terginus
+Collybie crin-de-cheval – Gymnopus androsaceus
+Collybie de Cooke – Collybia cookei
+Collybie de Earle – Gymnopus earleae
+Collybie de Rodman – Megacollybia rodmanii
+Collybie des chênes – Gymnopus dryophilus
+Collybie des cônes d'épicéa – Strobilurus esculentus
+Collybie des cônes de pin – Strobilurus stephanocystis
+Collybie des devins – Gymnopus cf hariolorum
+Collybie des neiges – Gymnopus vernus
+Collybie drapée d'or – Cyptotrama chrysopepla
+Collybie du chêne – Gymnopus dryophilus
+Collybie en touffes – Gymnopus confluens ou Gymnopus acervatus
+Collybie en troupes – Clitocybula familia
+Collybie fétide – Gymnopus impudicus ou Gymnopus foetidus
+Collybie foncée – Gymnopus alkalivirens
+Collybie fouisseuse – Rhodocollybia fodiens
+Collybie furfuracée – Hymenopellis furfuracea
+Collybie gracile – Gymnopus putillus
+Collybie guêtrée – Gymnopus peronatus
+Collybie hybride – Gymnopus hybridus
+Collybie hygrophore – Caulorhiza hygrophoroides
+Collybie impudique – Gymnopus impudicus
+Collybie jaune olivacé – Callistosporium luteoolivaceum
+Collybie lacérée – Clitocybula lacerata
+Collybie luxuriante – Gymnopus luxurians
+Collybie maculée – Rhodocollybia maculata
+Collybie méconnue – Hymenopellis incognita
+Collybie mycophage – Microcollybia cirrata
+Collybie peignée – Rhodocollybia filamentosa
+Collybie perforante – Gymnopus perforans
+Collybie pourprée – Gymnopus alkalivirens ou Gymnopus fuscopurpureus
+Collybie presque nue – Gymnopus subnudus
+Collybie queue-de-souris – Baeospora myosura
+Collybie radicante – Xerula radicata
+Collybie rameuse – Dendrocollybia racemosa
+Collybie soufrée – Gymnopus subsulphureus
+Collybie tenace – Strobilurus tenacellus
+Collybie tubéreuse – Collybia tuberosa
+Collybie visqueuse – Mucidula mucida
 </t>
         </is>
       </c>
